--- a/results/XNLI - PEFT Evaluation.xlsx
+++ b/results/XNLI - PEFT Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Uni Projects\nlpss23\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C84ED1D-83C2-4A50-9F22-D5DBE82601A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3092F5-AE1C-4A42-B2EA-89585FE4C301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{2EE9E613-1F35-4324-B87C-00549802DCFA}"/>
   </bookViews>
@@ -7456,8 +7456,8 @@
       <sheetName val="Bloomz - Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="6">
           <cell r="L6" t="str">
@@ -7825,9 +7825,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
